--- a/biology/Zoologie/Euptychia_meta/Euptychia_meta.xlsx
+++ b/biology/Zoologie/Euptychia_meta/Euptychia_meta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia meta est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia meta a été décrit par Gustav Weymer en 1911[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia meta a été décrit par Gustav Weymer en 1911.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia meta est un papillon blanc d'une envergure d'environ 32 mm au dessus blanc avec une bordure marron foncé  du bord costal, de l'apex et du bord externe des ailes antérieures, du bord externe des ailes postérieures où les ocelles proches de l'angle anal et de l'apex sont bien visibles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia meta est un papillon blanc d'une envergure d'environ 32 mm au dessus blanc avec une bordure marron foncé  du bord costal, de l'apex et du bord externe des ailes antérieures, du bord externe des ailes postérieures où les ocelles proches de l'angle anal et de l'apex sont bien visibles.
 Le revers est blanc à trois fines rayures marron et une ligne submarginale doublée d'ocelles un gros et un petit à l'apex des ailes antérieures, une ligne dont celui proche de l'angle anal et celui proche de l'apex sont noirs et pupillé
 </t>
         </is>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus[3].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus.
 </t>
         </is>
       </c>
@@ -606,12 +627,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia meta est présent au Pérou et en Équateur[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia meta est présent au Pérou et en Équateur,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_meta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_meta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia meta, sur Wikimedia CommonsEuptychia meta, sur Wikispecies
 </t>
